--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_271.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_271.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,178 +488,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[('0:00:07.540000', '0:00:16.720000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:01:14.180000', '0:01:27.700000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:01:03.840000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -663,542 +672,496 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[('0:00:58.400000', '0:01:05.040000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.76, 14.32)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:01:39.600000', '0:01:51.620000'), ('0:00:46.520000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'C']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(60.180884, 68.841927)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(10.090897, 16.615704)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.98, 20.58)]</t>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(118.78, 126.08)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07229872881355932</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D'], ['C', 'D', 'G'], ['D/5', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E'], ['D', 'E', 'A'], ['E', 'A', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.236303, 12.162018), (17.014988, 20.892721), (38.435396, 43.311587)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(92.74687, 96.589773), (3.605464, 10.96619), (5.463061, 12.591587)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
